--- a/BIS05D.xlsx
+++ b/BIS05D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="487">
   <si>
     <t/>
   </si>
@@ -1258,7 +1258,7 @@
     <t>20136761</t>
   </si>
   <si>
-    <t>ROMA MARI GOLD110+22</t>
+    <t>ROMA MARI GOLD 110G</t>
   </si>
   <si>
     <t>39</t>
@@ -1421,12 +1421,6 @@
   </si>
   <si>
     <t>ROMA CREAM CRAC 107G</t>
-  </si>
-  <si>
-    <t>20078242</t>
-  </si>
-  <si>
-    <t>GERY MLK SLT CNUT105</t>
   </si>
   <si>
     <t>20065096</t>
@@ -1870,7 +1864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F218"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -6094,7 +6088,7 @@
         <v>463</v>
       </c>
       <c r="E211" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>5</v>
@@ -6114,7 +6108,7 @@
         <v>463</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>5</v>
@@ -6131,10 +6125,10 @@
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>5</v>
@@ -6142,19 +6136,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D214" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B214" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>478</v>
-      </c>
       <c r="E214" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>5</v>
@@ -6171,10 +6165,10 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F215" s="1" t="s">
         <v>5</v>
@@ -6191,10 +6185,10 @@
         <v>3</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E216" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F216" s="1" t="s">
         <v>5</v>
@@ -6211,10 +6205,10 @@
         <v>3</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E217" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F217" s="1" t="s">
         <v>5</v>
@@ -6231,32 +6225,12 @@
         <v>3</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E218" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F218" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F219" s="1" t="s">
         <v>5</v>
       </c>
     </row>

--- a/BIS05D.xlsx
+++ b/BIS05D.xlsx
@@ -217,19 +217,19 @@
     <t>20132494</t>
   </si>
   <si>
-    <t>LEMONILO BRWNS KJU35</t>
+    <t>LEMONILO BRWNS KJU33</t>
   </si>
   <si>
     <t>20130152</t>
   </si>
   <si>
-    <t>LEMONILO BROWNIES 35</t>
+    <t>LEMONILO BROWNIES 33</t>
   </si>
   <si>
     <t>20137230</t>
   </si>
   <si>
-    <t>LEMONILO BRWNS STR35</t>
+    <t>LEMONILO BRWNS STR33</t>
   </si>
   <si>
     <t>20137584</t>
@@ -1273,13 +1273,13 @@
     <t>20014537</t>
   </si>
   <si>
-    <t>BISKUAT ORIGNAL106.4</t>
+    <t>BISKUAT ORIGNAL121.6</t>
   </si>
   <si>
     <t>20013662</t>
   </si>
   <si>
-    <t>BISKUAT COKLAT106.4G</t>
+    <t>BISKUAT COKLAT121.6G</t>
   </si>
   <si>
     <t>20118424</t>

--- a/BIS05D.xlsx
+++ b/BIS05D.xlsx
@@ -487,25 +487,25 @@
     <t>NYAM2 POPSTIX CHO 48</t>
   </si>
   <si>
-    <t>20135289</t>
-  </si>
-  <si>
-    <t>APETITO STK PIZZA 41</t>
+    <t>20138261</t>
+  </si>
+  <si>
+    <t>POCKY BLUEBERRY 38G</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>20138261</t>
-  </si>
-  <si>
-    <t>POCKY BLUEBERRY 38G</t>
-  </si>
-  <si>
     <t>20139957</t>
   </si>
   <si>
     <t>GLICO POCKY ROSE 31G</t>
+  </si>
+  <si>
+    <t>20141134</t>
+  </si>
+  <si>
+    <t>POCKY STRAW YOGRT 38</t>
   </si>
   <si>
     <t>20065180</t>
@@ -3308,7 +3308,7 @@
         <v>160</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3328,7 +3328,7 @@
         <v>160</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -3348,7 +3348,7 @@
         <v>160</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>5</v>
@@ -3368,7 +3368,7 @@
         <v>160</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>5</v>
@@ -3388,7 +3388,7 @@
         <v>160</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>26</v>
@@ -3408,7 +3408,7 @@
         <v>160</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>26</v>
@@ -3428,7 +3428,7 @@
         <v>160</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -3448,7 +3448,7 @@
         <v>160</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3468,7 +3468,7 @@
         <v>160</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>

--- a/BIS05D.xlsx
+++ b/BIS05D.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="481">
   <si>
     <t/>
   </si>
@@ -40,912 +40,900 @@
     <t>2</t>
   </si>
   <si>
+    <t>20130350</t>
+  </si>
+  <si>
+    <t>POCKY CHOCOLATE 154</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>20019529</t>
+  </si>
+  <si>
+    <t>NISSIN HEXA CRAK 225</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>10006131</t>
+  </si>
+  <si>
+    <t>AIM ROASTED CORN 180</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>RT,(E-3B)</t>
+  </si>
+  <si>
+    <t>10036899</t>
+  </si>
+  <si>
+    <t>REGAL MARIE BARU 550</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>20125628</t>
+  </si>
+  <si>
+    <t>NSSIN WFR CHO/LVA137</t>
+  </si>
+  <si>
+    <t>RT,(E-2B)</t>
+  </si>
+  <si>
+    <t>20108817</t>
+  </si>
+  <si>
+    <t>K/G SLTCHS COMBO 175</t>
+  </si>
+  <si>
+    <t>10007336</t>
+  </si>
+  <si>
+    <t>TANGO WFR STRAW 133G</t>
+  </si>
+  <si>
+    <t>20063092</t>
+  </si>
+  <si>
+    <t>SELAMAT DBL CHOCO128</t>
+  </si>
+  <si>
+    <t>10016650</t>
+  </si>
+  <si>
+    <t>SELAMAT WF.CHOCO 128</t>
+  </si>
+  <si>
+    <t>10004541</t>
+  </si>
+  <si>
+    <t>TANGO WFR VNLA 133G</t>
+  </si>
+  <si>
+    <t>10004540</t>
+  </si>
+  <si>
+    <t>TANGO WFR CHOCO 133G</t>
+  </si>
+  <si>
+    <t>20133247</t>
+  </si>
+  <si>
+    <t>OREO SOFT CAKE 96G</t>
+  </si>
+  <si>
+    <t>20030358</t>
+  </si>
+  <si>
+    <t>MONDE GNJI MN PIE 50</t>
+  </si>
+  <si>
+    <t>10036942</t>
+  </si>
+  <si>
+    <t>MONDE S.PIE STRW 85G</t>
+  </si>
+  <si>
+    <t>10003324</t>
+  </si>
+  <si>
+    <t>MONDE GENJIE PIE 70G</t>
+  </si>
+  <si>
+    <t>20139391</t>
+  </si>
+  <si>
+    <t>NEXTAR CHOC PIE 6S</t>
+  </si>
+  <si>
+    <t>20140126</t>
+  </si>
+  <si>
+    <t>NEXTAR STRAWB CHS156</t>
+  </si>
+  <si>
+    <t>20083539</t>
+  </si>
+  <si>
+    <t>DELFI CUSTAS SC 6'S</t>
+  </si>
+  <si>
+    <t>20052630</t>
+  </si>
+  <si>
+    <t>LOTTE CHOCO PIE 156G</t>
+  </si>
+  <si>
+    <t>20096783</t>
+  </si>
+  <si>
+    <t>DELFI CHO.PIE DRK180</t>
+  </si>
+  <si>
+    <t>20136934</t>
+  </si>
+  <si>
+    <t>LOTTE C/PIE STRWB156</t>
+  </si>
+  <si>
+    <t>20052628</t>
+  </si>
+  <si>
+    <t>LOTTE CHOCO PIE 52G</t>
+  </si>
+  <si>
+    <t>20056645</t>
+  </si>
+  <si>
+    <t>NARAYA OAT CHOCO 90G</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>10008580</t>
+  </si>
+  <si>
+    <t>DELFI MINIS CHOCO 70</t>
+  </si>
+  <si>
+    <t>10008579</t>
+  </si>
+  <si>
+    <t>DELFI MINIS BLK.VN70</t>
+  </si>
+  <si>
+    <t>20132494</t>
+  </si>
+  <si>
+    <t>LEMONILO BRWNS KJU33</t>
+  </si>
+  <si>
+    <t>20130152</t>
+  </si>
+  <si>
+    <t>LEMONILO BROWNIES 33</t>
+  </si>
+  <si>
+    <t>20137230</t>
+  </si>
+  <si>
+    <t>LEMONILO BRWNS STR33</t>
+  </si>
+  <si>
+    <t>20137584</t>
+  </si>
+  <si>
+    <t>IDM BROWNIS CHOCIP35</t>
+  </si>
+  <si>
+    <t>20137583</t>
+  </si>
+  <si>
+    <t>IDM BROWNIS CHEESE35</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20139819</t>
+  </si>
+  <si>
+    <t>TANGO BROWNIS CR.35G</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>20061189</t>
+  </si>
+  <si>
+    <t>NARAYA OAT CHOCO 90</t>
+  </si>
+  <si>
+    <t>20133506</t>
+  </si>
+  <si>
+    <t>DELFI KRICE SWET64.8</t>
+  </si>
+  <si>
+    <t>20133507</t>
+  </si>
+  <si>
+    <t>DELFI KRICE SWD 47.4</t>
+  </si>
+  <si>
+    <t>20102638</t>
+  </si>
+  <si>
+    <t>DEKA WFR BITE CHO 72</t>
+  </si>
+  <si>
+    <t>20083487</t>
+  </si>
+  <si>
+    <t>TANGO WFR CHOCO 99G</t>
+  </si>
+  <si>
+    <t>20083488</t>
+  </si>
+  <si>
+    <t>TANGO WFR VANL 99G</t>
+  </si>
+  <si>
+    <t>20138099</t>
+  </si>
+  <si>
+    <t>OVALTINE MB WFR 100G</t>
+  </si>
+  <si>
+    <t>20139081</t>
+  </si>
+  <si>
+    <t>REGAL CHO MARIE 64G</t>
+  </si>
+  <si>
+    <t>20130007</t>
+  </si>
+  <si>
+    <t>BETTER FUN BITES 10S</t>
+  </si>
+  <si>
+    <t>10000132</t>
+  </si>
+  <si>
+    <t>MONDE BT.COOKIES 454</t>
+  </si>
+  <si>
+    <t>10000734</t>
+  </si>
+  <si>
+    <t>NISSIN WFR CHOCO 570</t>
+  </si>
+  <si>
+    <t>20010655</t>
+  </si>
+  <si>
+    <t>TANGO WFER CHOCO 240</t>
+  </si>
+  <si>
+    <t>10000133</t>
+  </si>
+  <si>
+    <t>KHONG GUAN MN ASS650</t>
+  </si>
+  <si>
+    <t>10000360</t>
+  </si>
+  <si>
+    <t>KHONG GUAN RED 1600G</t>
+  </si>
+  <si>
+    <t>20129572</t>
+  </si>
+  <si>
+    <t>CHCLATOS WFR VNLA90</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>20127761</t>
+  </si>
+  <si>
+    <t>CHCLATOS WFR CHO 90</t>
+  </si>
+  <si>
+    <t>10000175</t>
+  </si>
+  <si>
+    <t>NISSIN WFR CHO 110G</t>
+  </si>
+  <si>
+    <t>20109917</t>
+  </si>
+  <si>
+    <t>ROMA WFR CHO BLS97.6</t>
+  </si>
+  <si>
+    <t>20055311</t>
+  </si>
+  <si>
+    <t>NABATI RCHSE WFR 110</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>20055312</t>
+  </si>
+  <si>
+    <t>NBATI RCHCO WFR C110</t>
+  </si>
+  <si>
+    <t>20138462</t>
+  </si>
+  <si>
+    <t>NABATI WFR STRAW 122</t>
+  </si>
+  <si>
+    <t>20069149</t>
+  </si>
+  <si>
+    <t>TANGO WFR LG VAN 100</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>20138977</t>
+  </si>
+  <si>
+    <t>TANGO WFR LG CHES100</t>
+  </si>
+  <si>
+    <t>20128683</t>
+  </si>
+  <si>
+    <t>TANGO WFLE CHO HZL75</t>
+  </si>
+  <si>
+    <t>20027448</t>
+  </si>
+  <si>
+    <t>TANGO WFR CHOC 100G</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>10000726</t>
+  </si>
+  <si>
+    <t>ASTOR CHOCOLATE 150G</t>
+  </si>
+  <si>
+    <t>20139686</t>
+  </si>
+  <si>
+    <t>TANGO WFLE WAHH 67.5</t>
+  </si>
+  <si>
+    <t>20139392</t>
+  </si>
+  <si>
+    <t>BRINGZ LMIER BTR 100</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>20138463</t>
+  </si>
+  <si>
+    <t>NABATI WRPZ STRW 66G</t>
+  </si>
+  <si>
+    <t>20137573</t>
+  </si>
+  <si>
+    <t>NABATI BIG RL CHO56G</t>
+  </si>
+  <si>
+    <t>20137570</t>
+  </si>
+  <si>
+    <t>NABATI BIG RL CHS48G</t>
+  </si>
+  <si>
+    <t>20138461</t>
+  </si>
+  <si>
+    <t>NABATI ROLL STRAW 55</t>
+  </si>
+  <si>
+    <t>20138332</t>
+  </si>
+  <si>
+    <t>CHOCOLATOS RICH 54G</t>
+  </si>
+  <si>
+    <t>10036934</t>
+  </si>
+  <si>
+    <t>ASTOR CHOCOLATE 40G</t>
+  </si>
+  <si>
+    <t>20129863</t>
+  </si>
+  <si>
+    <t>NYAM2 SMILEY CKL 45G</t>
+  </si>
+  <si>
+    <t>20099762</t>
+  </si>
+  <si>
+    <t>NYAM2 POPSTIX CHO 48</t>
+  </si>
+  <si>
+    <t>20138261</t>
+  </si>
+  <si>
+    <t>POCKY BLUEBERRY 38G</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>20141134</t>
+  </si>
+  <si>
+    <t>POCKY STRAW YOGRT 38</t>
+  </si>
+  <si>
+    <t>20065180</t>
+  </si>
+  <si>
+    <t>GLICO PEJOY CHO 30G</t>
+  </si>
+  <si>
+    <t>20039648</t>
+  </si>
+  <si>
+    <t>LOTTE PEPERO ALMND32</t>
+  </si>
+  <si>
+    <t>20060710</t>
+  </si>
+  <si>
+    <t>LOTTE PEPERO WHT.C32</t>
+  </si>
+  <si>
+    <t>10038704</t>
+  </si>
+  <si>
+    <t>MEIJI H/PANDA CHOC42</t>
+  </si>
+  <si>
+    <t>10004490</t>
+  </si>
+  <si>
+    <t>HELLO PANDA STRW 42G</t>
+  </si>
+  <si>
+    <t>20134559</t>
+  </si>
+  <si>
+    <t>HLO PANDA DB.CHO 42G</t>
+  </si>
+  <si>
+    <t>10000213</t>
+  </si>
+  <si>
+    <t>GLICO POCKY CHO 47GR</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>10036916</t>
+  </si>
+  <si>
+    <t>GLICO POCKY.STRAW 45</t>
+  </si>
+  <si>
+    <t>20086168</t>
+  </si>
+  <si>
+    <t>GLCO POCKY COOK&amp;CR40</t>
+  </si>
+  <si>
+    <t>20138741</t>
+  </si>
+  <si>
+    <t>GLICO POCKY MILK 39G</t>
+  </si>
+  <si>
+    <t>20138740</t>
+  </si>
+  <si>
+    <t>POCKY MILK CHOCO 39G</t>
+  </si>
+  <si>
+    <t>20062839</t>
+  </si>
+  <si>
+    <t>GLCO POCKY MTCHA 33G</t>
+  </si>
+  <si>
+    <t>20057865</t>
+  </si>
+  <si>
+    <t>GLCO POCKY DOU.CHO47</t>
+  </si>
+  <si>
+    <t>20134839</t>
+  </si>
+  <si>
+    <t>POCKY CRSHD DRK.CH25</t>
+  </si>
+  <si>
+    <t>10032077</t>
+  </si>
+  <si>
+    <t>NSSIN LG.STK BISC 90</t>
+  </si>
+  <si>
+    <t>20071746</t>
+  </si>
+  <si>
+    <t>SPRSTAR TRPL.CHO 6'S</t>
+  </si>
+  <si>
+    <t>20090169</t>
+  </si>
+  <si>
+    <t>GERY KR.BRS ASN 10'S</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>10000461</t>
+  </si>
+  <si>
+    <t>MONDE SERENA GOLD 50</t>
+  </si>
+  <si>
+    <t>20099687</t>
+  </si>
+  <si>
+    <t>MONDE SPCY TOMAT 50G</t>
+  </si>
+  <si>
+    <t>10000562</t>
+  </si>
+  <si>
+    <t>MONDE EGG DROPS 110G</t>
+  </si>
+  <si>
+    <t>10002258</t>
+  </si>
+  <si>
+    <t>MONDE BISC PBIS 190G</t>
+  </si>
+  <si>
+    <t>20135800</t>
+  </si>
+  <si>
+    <t>JULIES LEMOND CHS 89</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>RT,(E-3.5B)</t>
+  </si>
+  <si>
+    <t>20085046</t>
+  </si>
+  <si>
+    <t>JULIES PNUT BTR 82.5</t>
+  </si>
+  <si>
+    <t>20057475</t>
+  </si>
+  <si>
+    <t>SERENA TOGO CKLT 128</t>
+  </si>
+  <si>
+    <t>20095021</t>
+  </si>
+  <si>
+    <t>LEXUS SANDW CKLT 76G</t>
+  </si>
+  <si>
+    <t>20129409</t>
+  </si>
+  <si>
+    <t>NEXTAR NOIR CHO 144</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20122285</t>
+  </si>
+  <si>
+    <t>NEXTAR NOIR C&amp;C 144</t>
+  </si>
+  <si>
+    <t>20137569</t>
+  </si>
+  <si>
+    <t>BISKUAT GOLD.STR105G</t>
+  </si>
+  <si>
+    <t>20137568</t>
+  </si>
+  <si>
+    <t>BISKUAT GOLD.VNL105G</t>
+  </si>
+  <si>
+    <t>20131802</t>
+  </si>
+  <si>
+    <t>IMPERIAL BLUBERRY108</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>20139973</t>
+  </si>
+  <si>
+    <t>IMPERIAL STRW&amp;CH 100</t>
+  </si>
+  <si>
+    <t>20139951</t>
+  </si>
+  <si>
+    <t>KOKOLA BLCK CKLT 110</t>
+  </si>
+  <si>
+    <t>20140011</t>
+  </si>
+  <si>
+    <t>MILO BISC. CHOCO 96G</t>
+  </si>
+  <si>
+    <t>20106305</t>
+  </si>
+  <si>
+    <t>OREO RED VELVET110.4</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>20091225</t>
+  </si>
+  <si>
+    <t>OVLTNE CHO BISC 104G</t>
+  </si>
+  <si>
+    <t>20134970</t>
+  </si>
+  <si>
+    <t>MILO SANDW ORIG 104G</t>
+  </si>
+  <si>
+    <t>20134969</t>
+  </si>
+  <si>
+    <t>MILO SANDW MILK 104G</t>
+  </si>
+  <si>
+    <t>20074990</t>
+  </si>
+  <si>
+    <t>OREO DARK&amp;WHT 110.4</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>20024644</t>
+  </si>
+  <si>
+    <t>OREO STRAW CREM110.4</t>
+  </si>
+  <si>
+    <t>10016170</t>
+  </si>
+  <si>
+    <t>OREO CHOCO CRM 110.4</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>20030547</t>
+  </si>
+  <si>
+    <t>OREO ICE CRM BL110.4</t>
+  </si>
+  <si>
+    <t>10035165</t>
+  </si>
+  <si>
+    <t>OREO ORIGINAL 110.4G</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>20138464</t>
+  </si>
+  <si>
+    <t>OREO ORIGINAL 147.2G</t>
+  </si>
+  <si>
+    <t>20139740</t>
+  </si>
+  <si>
+    <t>OREO BB MONSTR 110.4</t>
+  </si>
+  <si>
+    <t>20015337</t>
+  </si>
+  <si>
+    <t>LEXUS SANDW COKL 190</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>20015338</t>
+  </si>
+  <si>
+    <t>LEXUS SANDW CHSE 190</t>
+  </si>
+  <si>
+    <t>20139060</t>
+  </si>
+  <si>
+    <t>BISKUAT BITE ORI 35G</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>20139061</t>
+  </si>
+  <si>
+    <t>BISKUAT BITE CKLT 35</t>
+  </si>
+  <si>
+    <t>20048790</t>
+  </si>
+  <si>
+    <t>OREO MINI CHOCO 58.4</t>
+  </si>
+  <si>
+    <t>20048791</t>
+  </si>
+  <si>
+    <t>OREO MINI VANLA 58.4</t>
+  </si>
+  <si>
+    <t>20076573</t>
+  </si>
+  <si>
+    <t>NEXTAR CHO.BRWNS 8'S</t>
+  </si>
+  <si>
+    <t>20071797</t>
+  </si>
+  <si>
+    <t>NEXTAR PINEAPPLE 8'S</t>
+  </si>
+  <si>
+    <t>20130555</t>
+  </si>
+  <si>
+    <t>NEXTAR RICHOCO 8'S</t>
+  </si>
+  <si>
+    <t>20138465</t>
+  </si>
+  <si>
+    <t>NEXTAR STRAWBRY 90G</t>
+  </si>
+  <si>
+    <t>20122072</t>
+  </si>
+  <si>
+    <t>NUTELLA B-READY/F 22</t>
+  </si>
+  <si>
+    <t>RT,(E-14H)</t>
+  </si>
+  <si>
+    <t>20025592</t>
+  </si>
+  <si>
+    <t>K/G WAFER CLASSIC350</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>10000731</t>
+  </si>
+  <si>
+    <t>KHONG GUAN BISC 300G</t>
+  </si>
+  <si>
+    <t>10036921</t>
+  </si>
+  <si>
+    <t>K/G CRACKERS CRM 350</t>
+  </si>
+  <si>
+    <t>10038628</t>
+  </si>
+  <si>
+    <t>HATARI BIS.PEANUT225</t>
+  </si>
+  <si>
+    <t>20126401</t>
+  </si>
+  <si>
+    <t>KOKOLA KKS VANLA 218</t>
+  </si>
+  <si>
+    <t>20008887</t>
+  </si>
+  <si>
+    <t>MONDE SERENA EGG 168</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>20095146</t>
+  </si>
+  <si>
+    <t>MONDE SRN EGG ORI 70</t>
+  </si>
+  <si>
+    <t>10036931</t>
+  </si>
+  <si>
+    <t>MONDE BT.COOKIES 150</t>
+  </si>
+  <si>
+    <t>20135148</t>
+  </si>
+  <si>
+    <t>MONDE SHRTBRD MTG115</t>
+  </si>
+  <si>
     <t>20013332</t>
   </si>
   <si>
     <t>K/G SALTCH CMBO10X17</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>20130350</t>
-  </si>
-  <si>
-    <t>POCKY CHOCOLATE 154</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20019529</t>
-  </si>
-  <si>
-    <t>NISSIN HEXA CRAK 225</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20025592</t>
-  </si>
-  <si>
-    <t>K/G WAFER CLASSIC350</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>10036899</t>
-  </si>
-  <si>
-    <t>REGAL MARIE BARU 550</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>20125628</t>
-  </si>
-  <si>
-    <t>NSSIN WFR CHO/LVA137</t>
-  </si>
-  <si>
-    <t>RT,(E-2B)</t>
-  </si>
-  <si>
-    <t>20108817</t>
-  </si>
-  <si>
-    <t>K/G SLTCHS COMBO 175</t>
-  </si>
-  <si>
-    <t>10007336</t>
-  </si>
-  <si>
-    <t>TANGO WFR STRAW 133G</t>
-  </si>
-  <si>
-    <t>20063092</t>
-  </si>
-  <si>
-    <t>SELAMAT DBL CHOCO145</t>
-  </si>
-  <si>
-    <t>10016650</t>
-  </si>
-  <si>
-    <t>SELAMAT WF.CHOCO 145</t>
-  </si>
-  <si>
-    <t>10004541</t>
-  </si>
-  <si>
-    <t>TANGO WFR VNLA 133G</t>
-  </si>
-  <si>
-    <t>10004540</t>
-  </si>
-  <si>
-    <t>TANGO WFR CHOCO 133G</t>
-  </si>
-  <si>
-    <t>20133247</t>
-  </si>
-  <si>
-    <t>OREO SOFT CAKE 96G</t>
-  </si>
-  <si>
-    <t>20030358</t>
-  </si>
-  <si>
-    <t>MONDE GNJI MN PIE 50</t>
-  </si>
-  <si>
-    <t>10036942</t>
-  </si>
-  <si>
-    <t>MONDE S.PIE STRW 85G</t>
-  </si>
-  <si>
-    <t>10003324</t>
-  </si>
-  <si>
-    <t>MONDE GENJIE PIE 70G</t>
-  </si>
-  <si>
-    <t>20139391</t>
-  </si>
-  <si>
-    <t>NEXTAR CHOC PIE 6S</t>
-  </si>
-  <si>
-    <t>20140126</t>
-  </si>
-  <si>
-    <t>NEXTAR STRAWB CHS156</t>
-  </si>
-  <si>
-    <t>20083539</t>
-  </si>
-  <si>
-    <t>DELFI CUSTAS SC 6'S</t>
-  </si>
-  <si>
-    <t>20052630</t>
-  </si>
-  <si>
-    <t>LOTTE CHOCO PIE 156G</t>
-  </si>
-  <si>
-    <t>20096783</t>
-  </si>
-  <si>
-    <t>DELFI CHO.PIE DRK180</t>
-  </si>
-  <si>
-    <t>20136934</t>
-  </si>
-  <si>
-    <t>LOTTE C/PIE STRWB156</t>
-  </si>
-  <si>
-    <t>20052628</t>
-  </si>
-  <si>
-    <t>LOTTE CHOCO PIE 52G</t>
-  </si>
-  <si>
-    <t>20056645</t>
-  </si>
-  <si>
-    <t>NARAYA OAT CHOCO 90G</t>
-  </si>
-  <si>
-    <t>10008580</t>
-  </si>
-  <si>
-    <t>DELFI MINIS CHOCO 70</t>
-  </si>
-  <si>
-    <t>10008579</t>
-  </si>
-  <si>
-    <t>DELFI MINIS BLK.VN70</t>
-  </si>
-  <si>
-    <t>20132494</t>
-  </si>
-  <si>
-    <t>LEMONILO BRWNS KJU33</t>
-  </si>
-  <si>
-    <t>20130152</t>
-  </si>
-  <si>
-    <t>LEMONILO BROWNIES 33</t>
-  </si>
-  <si>
-    <t>20137230</t>
-  </si>
-  <si>
-    <t>LEMONILO BRWNS STR33</t>
-  </si>
-  <si>
-    <t>20137584</t>
-  </si>
-  <si>
-    <t>IDM BROWNIS CHOCIP35</t>
-  </si>
-  <si>
-    <t>20137583</t>
-  </si>
-  <si>
-    <t>IDM BROWNIS CHEESE35</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>20139819</t>
-  </si>
-  <si>
-    <t>TANGO BROWNIS CR.35G</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>20061189</t>
-  </si>
-  <si>
-    <t>NARAYA OAT CHOCO 90</t>
-  </si>
-  <si>
-    <t>20133506</t>
-  </si>
-  <si>
-    <t>DELFI KRICE SWET64.8</t>
-  </si>
-  <si>
-    <t>20133507</t>
-  </si>
-  <si>
-    <t>DELFI KRICE SWD 47.4</t>
-  </si>
-  <si>
-    <t>20102638</t>
-  </si>
-  <si>
-    <t>DEKA WFR BITE CHO 72</t>
-  </si>
-  <si>
-    <t>20083487</t>
-  </si>
-  <si>
-    <t>TANGO WFR CHOCO 99G</t>
-  </si>
-  <si>
-    <t>20083488</t>
-  </si>
-  <si>
-    <t>TANGO WFR VANL 99G</t>
-  </si>
-  <si>
-    <t>20138099</t>
-  </si>
-  <si>
-    <t>OVALTINE MB WFR 100G</t>
-  </si>
-  <si>
-    <t>20139081</t>
-  </si>
-  <si>
-    <t>REGAL CHO MARIE 64G</t>
-  </si>
-  <si>
-    <t>20130007</t>
-  </si>
-  <si>
-    <t>BETTER FUN BITES 10S</t>
-  </si>
-  <si>
-    <t>10000132</t>
-  </si>
-  <si>
-    <t>MONDE BT.COOKIES 454</t>
-  </si>
-  <si>
-    <t>10000734</t>
-  </si>
-  <si>
-    <t>NISSIN WFR CHOCO 570</t>
-  </si>
-  <si>
-    <t>20010655</t>
-  </si>
-  <si>
-    <t>TANGO WFER CHOCO 240</t>
-  </si>
-  <si>
-    <t>10000133</t>
-  </si>
-  <si>
-    <t>KHONG GUAN MN ASS650</t>
-  </si>
-  <si>
-    <t>10000360</t>
-  </si>
-  <si>
-    <t>KHONG GUAN RED 1600G</t>
-  </si>
-  <si>
-    <t>20129572</t>
-  </si>
-  <si>
-    <t>CHCLATOS WFR VNLA90</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>20127761</t>
-  </si>
-  <si>
-    <t>CHCLATOS WFR CHO 90</t>
-  </si>
-  <si>
-    <t>10000175</t>
-  </si>
-  <si>
-    <t>NISSIN WFR CHO 110G</t>
-  </si>
-  <si>
-    <t>20109917</t>
-  </si>
-  <si>
-    <t>ROMA WFR CHO BLS97.6</t>
-  </si>
-  <si>
-    <t>20055311</t>
-  </si>
-  <si>
-    <t>NABATI RCHSE WFR 110</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>20055312</t>
-  </si>
-  <si>
-    <t>NBATI RCHCO WFR C110</t>
-  </si>
-  <si>
-    <t>20138462</t>
-  </si>
-  <si>
-    <t>NABATI WFR STRAW 122</t>
-  </si>
-  <si>
-    <t>20069149</t>
-  </si>
-  <si>
-    <t>TANGO WFR LG VAN 100</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>20138977</t>
-  </si>
-  <si>
-    <t>TANGO WFR LG CHES100</t>
-  </si>
-  <si>
-    <t>20128683</t>
-  </si>
-  <si>
-    <t>TANGO WFLE CHO HZL75</t>
-  </si>
-  <si>
-    <t>20027448</t>
-  </si>
-  <si>
-    <t>TANGO WFR CHOC 100G</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>10000726</t>
-  </si>
-  <si>
-    <t>ASTOR CHOCOLATE 150G</t>
-  </si>
-  <si>
-    <t>20139686</t>
-  </si>
-  <si>
-    <t>TANGO WFLE WAHH 67.5</t>
-  </si>
-  <si>
-    <t>20139392</t>
-  </si>
-  <si>
-    <t>BRINGZ LMIER BTR 100</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>20138463</t>
-  </si>
-  <si>
-    <t>NABATI WRPZ STRW 66G</t>
-  </si>
-  <si>
-    <t>20137573</t>
-  </si>
-  <si>
-    <t>NABATI BIG RL CHO56G</t>
-  </si>
-  <si>
-    <t>20137570</t>
-  </si>
-  <si>
-    <t>NABATI BIG RL CHS48G</t>
-  </si>
-  <si>
-    <t>20138461</t>
-  </si>
-  <si>
-    <t>NABATI ROLL STRAW 55</t>
-  </si>
-  <si>
-    <t>20138332</t>
-  </si>
-  <si>
-    <t>CHOCOLATOS RICH 54G</t>
-  </si>
-  <si>
-    <t>10036934</t>
-  </si>
-  <si>
-    <t>ASTOR CHOCOLATE 40G</t>
-  </si>
-  <si>
-    <t>20129863</t>
-  </si>
-  <si>
-    <t>NYAM2 SMILEY CKL 45G</t>
-  </si>
-  <si>
-    <t>20099762</t>
-  </si>
-  <si>
-    <t>NYAM2 POPSTIX CHO 48</t>
-  </si>
-  <si>
-    <t>20138261</t>
-  </si>
-  <si>
-    <t>POCKY BLUEBERRY 38G</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>20139957</t>
-  </si>
-  <si>
-    <t>GLICO POCKY ROSE 31G</t>
-  </si>
-  <si>
-    <t>20141134</t>
-  </si>
-  <si>
-    <t>POCKY STRAW YOGRT 38</t>
-  </si>
-  <si>
-    <t>20065180</t>
-  </si>
-  <si>
-    <t>GLICO PEJOY CHO 30G</t>
-  </si>
-  <si>
-    <t>20039648</t>
-  </si>
-  <si>
-    <t>LOTTE PEPERO ALMND32</t>
-  </si>
-  <si>
-    <t>20060710</t>
-  </si>
-  <si>
-    <t>LOTTE PEPERO WHT.C32</t>
-  </si>
-  <si>
-    <t>10038704</t>
-  </si>
-  <si>
-    <t>MEIJI H/PANDA CHOC42</t>
-  </si>
-  <si>
-    <t>10004490</t>
-  </si>
-  <si>
-    <t>HELLO PANDA STRW 42G</t>
-  </si>
-  <si>
-    <t>20134559</t>
-  </si>
-  <si>
-    <t>HLO PANDA DB.CHO 42G</t>
-  </si>
-  <si>
-    <t>10000213</t>
-  </si>
-  <si>
-    <t>GLICO POCKY CHO 47GR</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>10036916</t>
-  </si>
-  <si>
-    <t>GLICO POCKY.STRAW 45</t>
-  </si>
-  <si>
-    <t>20086168</t>
-  </si>
-  <si>
-    <t>GLCO POCKY COOK&amp;CR40</t>
-  </si>
-  <si>
-    <t>20138741</t>
-  </si>
-  <si>
-    <t>GLICO POCKY MILK 39G</t>
-  </si>
-  <si>
-    <t>20138740</t>
-  </si>
-  <si>
-    <t>POCKY MILK CHOCO 39G</t>
-  </si>
-  <si>
-    <t>20062839</t>
-  </si>
-  <si>
-    <t>GLCO POCKY MTCHA 33G</t>
-  </si>
-  <si>
-    <t>20057865</t>
-  </si>
-  <si>
-    <t>GLCO POCKY DOU.CHO47</t>
-  </si>
-  <si>
-    <t>20134839</t>
-  </si>
-  <si>
-    <t>POCKY CRSHD DRK.CH25</t>
-  </si>
-  <si>
-    <t>10032077</t>
-  </si>
-  <si>
-    <t>NSSIN LG.STK BISC 90</t>
-  </si>
-  <si>
-    <t>20071746</t>
-  </si>
-  <si>
-    <t>SPRSTAR TRPL.CHO 6'S</t>
-  </si>
-  <si>
-    <t>20090169</t>
-  </si>
-  <si>
-    <t>GERY KR.BRS ASN 10'S</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>10006131</t>
-  </si>
-  <si>
-    <t>AIM ROASTED CORN 180</t>
-  </si>
-  <si>
-    <t>RT,(E-3B)</t>
-  </si>
-  <si>
-    <t>10000461</t>
-  </si>
-  <si>
-    <t>MONDE SERENA GOLD 50</t>
-  </si>
-  <si>
-    <t>20099687</t>
-  </si>
-  <si>
-    <t>MONDE SPCY TOMAT 50G</t>
-  </si>
-  <si>
-    <t>10000562</t>
-  </si>
-  <si>
-    <t>MONDE EGG DROPS 110G</t>
-  </si>
-  <si>
-    <t>10002258</t>
-  </si>
-  <si>
-    <t>MONDE BISC PBIS 190G</t>
-  </si>
-  <si>
-    <t>20135800</t>
-  </si>
-  <si>
-    <t>JULIES LEMOND CHS 89</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>RT,(E-3.5B)</t>
-  </si>
-  <si>
-    <t>20085046</t>
-  </si>
-  <si>
-    <t>JULIES PNUT BTR 82.5</t>
-  </si>
-  <si>
-    <t>20057475</t>
-  </si>
-  <si>
-    <t>SERENA TOGO CKLT 128</t>
-  </si>
-  <si>
-    <t>20095021</t>
-  </si>
-  <si>
-    <t>LEXUS SANDW CKLT 76G</t>
-  </si>
-  <si>
-    <t>20129409</t>
-  </si>
-  <si>
-    <t>NEXTAR NOIR CHO 144</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20122285</t>
-  </si>
-  <si>
-    <t>NEXTAR NOIR C&amp;C 144</t>
-  </si>
-  <si>
-    <t>20137569</t>
-  </si>
-  <si>
-    <t>BISKUAT GOLD.STR105G</t>
-  </si>
-  <si>
-    <t>20137568</t>
-  </si>
-  <si>
-    <t>BISKUAT GOLD.VNL105G</t>
-  </si>
-  <si>
-    <t>20131802</t>
-  </si>
-  <si>
-    <t>IMPERIAL BLUBERRY108</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>20139973</t>
-  </si>
-  <si>
-    <t>IMPERIAL STRW&amp;CH 100</t>
-  </si>
-  <si>
-    <t>20139951</t>
-  </si>
-  <si>
-    <t>KOKOLA BLCK CKLT 110</t>
-  </si>
-  <si>
-    <t>20140011</t>
-  </si>
-  <si>
-    <t>MILO BISC. CHOCO 96G</t>
-  </si>
-  <si>
-    <t>20106305</t>
-  </si>
-  <si>
-    <t>OREO RED VELVET110.4</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20091225</t>
-  </si>
-  <si>
-    <t>OVLTNE CHO BISC 104G</t>
-  </si>
-  <si>
-    <t>20134970</t>
-  </si>
-  <si>
-    <t>MILO SANDW ORIG 104G</t>
-  </si>
-  <si>
-    <t>20134969</t>
-  </si>
-  <si>
-    <t>MILO SANDW MILK 104G</t>
-  </si>
-  <si>
-    <t>20074990</t>
-  </si>
-  <si>
-    <t>OREO DARK&amp;WHT 110.4</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>20024644</t>
-  </si>
-  <si>
-    <t>OREO STRAW CREM110.4</t>
-  </si>
-  <si>
-    <t>10016170</t>
-  </si>
-  <si>
-    <t>OREO CHOCO CRM 110.4</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>20030547</t>
-  </si>
-  <si>
-    <t>OREO ICE CRM BL110.4</t>
-  </si>
-  <si>
-    <t>10035165</t>
-  </si>
-  <si>
-    <t>OREO ORIGINAL 110.4G</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>20138464</t>
-  </si>
-  <si>
-    <t>OREO ORIGINAL 147.2G</t>
-  </si>
-  <si>
-    <t>20139740</t>
-  </si>
-  <si>
-    <t>OREO BB MONSTR 110.4</t>
-  </si>
-  <si>
-    <t>20015337</t>
-  </si>
-  <si>
-    <t>LEXUS SANDW COKL 190</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>20015338</t>
-  </si>
-  <si>
-    <t>LEXUS SANDW CHSE 190</t>
-  </si>
-  <si>
-    <t>20139060</t>
-  </si>
-  <si>
-    <t>BISKUAT BITE ORI 35G</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>20139061</t>
-  </si>
-  <si>
-    <t>BISKUAT BITE CKLT 35</t>
-  </si>
-  <si>
-    <t>20062852</t>
-  </si>
-  <si>
-    <t>OREO MINI STRW 58.4G</t>
-  </si>
-  <si>
-    <t>20048790</t>
-  </si>
-  <si>
-    <t>OREO MINI CHOCO 58.4</t>
-  </si>
-  <si>
-    <t>20048791</t>
-  </si>
-  <si>
-    <t>OREO MINI VANLA 58.4</t>
-  </si>
-  <si>
-    <t>20076573</t>
-  </si>
-  <si>
-    <t>NEXTAR CHO.BRWNS 8'S</t>
-  </si>
-  <si>
-    <t>20071797</t>
-  </si>
-  <si>
-    <t>NEXTAR PINEAPPLE 8'S</t>
-  </si>
-  <si>
-    <t>20130555</t>
-  </si>
-  <si>
-    <t>NEXTAR RICHOCO 8'S</t>
-  </si>
-  <si>
-    <t>20138465</t>
-  </si>
-  <si>
-    <t>NEXTAR STRAWBRY 90G</t>
-  </si>
-  <si>
-    <t>20122072</t>
-  </si>
-  <si>
-    <t>NUTELLA B-READY/F 22</t>
-  </si>
-  <si>
-    <t>RT,(E-14H)</t>
-  </si>
-  <si>
-    <t>10000731</t>
-  </si>
-  <si>
-    <t>KHONG GUAN BISC 300G</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>10036921</t>
-  </si>
-  <si>
-    <t>K/G CRACKERS CRM 350</t>
-  </si>
-  <si>
-    <t>10038628</t>
-  </si>
-  <si>
-    <t>HATARI BIS.PEANUT225</t>
-  </si>
-  <si>
-    <t>20126401</t>
-  </si>
-  <si>
-    <t>KOKOLA KKS VANLA 218</t>
-  </si>
-  <si>
-    <t>20008887</t>
-  </si>
-  <si>
-    <t>MONDE SERENA EGG 168</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>20095146</t>
-  </si>
-  <si>
-    <t>MONDE SRN EGG ORI 70</t>
-  </si>
-  <si>
-    <t>10036931</t>
-  </si>
-  <si>
-    <t>MONDE BT.COOKIES 150</t>
-  </si>
-  <si>
-    <t>20135148</t>
-  </si>
-  <si>
-    <t>MONDE SHRTBRD MTG115</t>
-  </si>
-  <si>
     <t>10033424</t>
   </si>
   <si>
@@ -1330,19 +1318,13 @@
     <t>NISSIN CR.CRISPY 250</t>
   </si>
   <si>
-    <t>20055268</t>
-  </si>
-  <si>
-    <t>IDM MLKIST CRAK 125G</t>
+    <t>20071671</t>
+  </si>
+  <si>
+    <t>IDM CREAM CRACK 120G</t>
   </si>
   <si>
     <t>PT,(E-1B)</t>
-  </si>
-  <si>
-    <t>20071671</t>
-  </si>
-  <si>
-    <t>IDM CREAM CRACK 120G</t>
   </si>
   <si>
     <t>20137760</t>
@@ -1864,7 +1846,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F218"/>
+  <dimension ref="A1:F215"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
@@ -1991,15 +1973,15 @@
         <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
@@ -2008,7 +1990,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>5</v>
@@ -2016,30 +1998,30 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>3</v>
@@ -2051,7 +2033,7 @@
         <v>8</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -2085,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
@@ -2108,7 +2090,7 @@
         <v>11</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -2128,7 +2110,7 @@
         <v>11</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>5</v>
@@ -2148,7 +2130,7 @@
         <v>11</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>5</v>
@@ -2165,10 +2147,10 @@
         <v>3</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -2188,7 +2170,7 @@
         <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -2245,10 +2227,10 @@
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>5</v>
@@ -2268,7 +2250,7 @@
         <v>17</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>5</v>
@@ -2288,7 +2270,7 @@
         <v>17</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>5</v>
@@ -2305,10 +2287,10 @@
         <v>3</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>5</v>
@@ -2325,10 +2307,10 @@
         <v>3</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>5</v>
@@ -2345,10 +2327,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>5</v>
@@ -2365,10 +2347,10 @@
         <v>3</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>5</v>
@@ -2385,50 +2367,50 @@
         <v>3</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="E27" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>5</v>
@@ -2436,19 +2418,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>5</v>
@@ -2456,19 +2438,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>5</v>
@@ -2476,19 +2458,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>5</v>
@@ -2496,19 +2478,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>5</v>
@@ -2516,19 +2498,19 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>5</v>
@@ -2536,19 +2518,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>5</v>
@@ -2556,59 +2538,59 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>5</v>
@@ -2616,19 +2598,19 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>5</v>
@@ -2636,19 +2618,19 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>5</v>
@@ -2656,19 +2638,19 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>5</v>
@@ -2676,19 +2658,19 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>5</v>
@@ -2696,19 +2678,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>5</v>
@@ -2716,19 +2698,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>5</v>
@@ -2736,19 +2718,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>5</v>
@@ -2756,19 +2738,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>5</v>
@@ -2776,19 +2758,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>5</v>
@@ -2796,19 +2778,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>5</v>
@@ -2816,19 +2798,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>5</v>
@@ -2836,19 +2818,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>5</v>
@@ -2856,19 +2838,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B50" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="E50" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>5</v>
@@ -2876,19 +2858,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>5</v>
@@ -2896,19 +2878,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>5</v>
@@ -2916,79 +2898,79 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B54" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D54" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>120</v>
-      </c>
       <c r="E54" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>5</v>
@@ -2996,19 +2978,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B57" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="E57" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>5</v>
@@ -3016,19 +2998,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>5</v>
@@ -3036,19 +3018,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>5</v>
@@ -3056,19 +3038,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B60" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>5</v>
@@ -3076,19 +3058,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>5</v>
@@ -3096,19 +3078,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>5</v>
@@ -3116,19 +3098,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B63" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>141</v>
-      </c>
       <c r="E63" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>5</v>
@@ -3136,19 +3118,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>5</v>
@@ -3156,19 +3138,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>5</v>
@@ -3176,19 +3158,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>5</v>
@@ -3196,19 +3178,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>5</v>
@@ -3216,19 +3198,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>5</v>
@@ -3236,19 +3218,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>5</v>
@@ -3256,59 +3238,59 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>80</v>
+        <v>8</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B72" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E72" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>5</v>
@@ -3316,19 +3298,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>5</v>
@@ -3336,99 +3318,99 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>5</v>
@@ -3436,19 +3418,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>5</v>
@@ -3456,19 +3438,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B80" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D80" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E80" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>5</v>
@@ -3476,19 +3458,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>5</v>
@@ -3496,19 +3478,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>5</v>
@@ -3516,19 +3498,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>5</v>
@@ -3536,19 +3518,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>5</v>
@@ -3556,19 +3538,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>5</v>
@@ -3576,19 +3558,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>5</v>
@@ -3596,19 +3578,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>5</v>
@@ -3616,19 +3598,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>5</v>
@@ -3636,19 +3618,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>5</v>
@@ -3656,19 +3638,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B90" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D90" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D90" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="E90" s="1" t="s">
-        <v>111</v>
+        <v>11</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>5</v>
@@ -3676,19 +3658,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>5</v>
@@ -3696,22 +3678,22 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3725,10 +3707,10 @@
         <v>3</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>5</v>
@@ -3745,50 +3727,50 @@
         <v>3</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>5</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="E95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F95" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>5</v>
@@ -3796,22 +3778,22 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>215</v>
+        <v>18</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3825,30 +3807,30 @@
         <v>3</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>215</v>
+        <v>5</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D99" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>5</v>
@@ -3856,39 +3838,39 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>5</v>
@@ -3905,10 +3887,10 @@
         <v>3</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>5</v>
@@ -3916,19 +3898,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D103" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D103" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E103" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>5</v>
@@ -3936,19 +3918,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>5</v>
@@ -3956,19 +3938,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>5</v>
@@ -3985,10 +3967,10 @@
         <v>3</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>5</v>
@@ -3996,19 +3978,19 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D107" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="B107" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="E107" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>5</v>
@@ -4016,19 +3998,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>5</v>
@@ -4036,19 +4018,19 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
         <v>5</v>
@@ -4065,10 +4047,10 @@
         <v>3</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>5</v>
@@ -4076,19 +4058,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D111" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B111" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D111" s="1" t="s">
-        <v>242</v>
-      </c>
       <c r="E111" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>5</v>
@@ -4096,19 +4078,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>5</v>
@@ -4116,19 +4098,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B113" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D113" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D113" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E113" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F113" s="1" t="s">
         <v>5</v>
@@ -4136,19 +4118,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>5</v>
@@ -4156,19 +4138,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B115" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E115" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>5</v>
@@ -4176,19 +4158,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>5</v>
@@ -4196,59 +4178,59 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E117" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D118" s="1" t="s">
         <v>262</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>261</v>
       </c>
       <c r="E118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>5</v>
@@ -4256,59 +4238,59 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B120" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D120" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>268</v>
-      </c>
       <c r="E120" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C121" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F121" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>5</v>
@@ -4325,13 +4307,13 @@
         <v>3</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F123" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4345,13 +4327,13 @@
         <v>3</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4365,13 +4347,13 @@
         <v>3</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>17</v>
+        <v>79</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>5</v>
@@ -4405,70 +4387,70 @@
         <v>3</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="F127" s="1" t="s">
-        <v>26</v>
+        <v>284</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D129" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D129" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E129" s="1" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="F129" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>5</v>
@@ -4476,42 +4458,42 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="F131" s="1" t="s">
-        <v>292</v>
+        <v>18</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="F132" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4525,10 +4507,10 @@
         <v>3</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>5</v>
@@ -4536,59 +4518,59 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D134" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="B134" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E134" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F134" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>5</v>
@@ -4605,10 +4587,10 @@
         <v>3</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>5</v>
@@ -4625,10 +4607,10 @@
         <v>3</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>5</v>
@@ -4636,19 +4618,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D139" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="B139" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>304</v>
-      </c>
       <c r="E139" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>5</v>
@@ -4656,19 +4638,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>5</v>
@@ -4685,10 +4667,10 @@
         <v>3</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>5</v>
@@ -4696,19 +4678,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D142" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D142" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="E142" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>5</v>
@@ -4716,19 +4698,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>5</v>
@@ -4745,13 +4727,13 @@
         <v>3</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F144" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4765,10 +4747,10 @@
         <v>3</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>5</v>
@@ -4776,39 +4758,39 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D146" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B146" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>320</v>
-      </c>
       <c r="E146" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F146" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F147" s="1" t="s">
         <v>5</v>
@@ -4825,10 +4807,10 @@
         <v>3</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F148" s="1" t="s">
         <v>5</v>
@@ -4845,10 +4827,10 @@
         <v>3</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F149" s="1" t="s">
         <v>5</v>
@@ -4865,10 +4847,10 @@
         <v>3</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F150" s="1" t="s">
         <v>5</v>
@@ -4876,19 +4858,19 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D151" s="1" t="s">
         <v>336</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="E151" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F151" s="1" t="s">
         <v>5</v>
@@ -4896,19 +4878,19 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C152" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F152" s="1" t="s">
         <v>5</v>
@@ -4925,10 +4907,10 @@
         <v>3</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F153" s="1" t="s">
         <v>5</v>
@@ -4936,19 +4918,19 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D154" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="E154" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F154" s="1" t="s">
         <v>5</v>
@@ -4956,19 +4938,19 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C155" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F155" s="1" t="s">
         <v>5</v>
@@ -4985,10 +4967,10 @@
         <v>3</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F156" s="1" t="s">
         <v>5</v>
@@ -5005,10 +4987,10 @@
         <v>3</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F157" s="1" t="s">
         <v>5</v>
@@ -5016,19 +4998,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D158" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E158" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F158" s="1" t="s">
         <v>5</v>
@@ -5036,19 +5018,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C159" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F159" s="1" t="s">
         <v>5</v>
@@ -5065,10 +5047,10 @@
         <v>3</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F160" s="1" t="s">
         <v>5</v>
@@ -5085,10 +5067,10 @@
         <v>3</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F161" s="1" t="s">
         <v>5</v>
@@ -5096,19 +5078,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D162" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="E162" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F162" s="1" t="s">
         <v>5</v>
@@ -5116,19 +5098,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F163" s="1" t="s">
         <v>5</v>
@@ -5145,10 +5127,10 @@
         <v>3</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F164" s="1" t="s">
         <v>5</v>
@@ -5165,10 +5147,10 @@
         <v>3</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F165" s="1" t="s">
         <v>5</v>
@@ -5176,19 +5158,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D166" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>365</v>
-      </c>
       <c r="E166" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F166" s="1" t="s">
         <v>5</v>
@@ -5196,22 +5178,22 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C167" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F167" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -5225,13 +5207,13 @@
         <v>3</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F168" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -5245,13 +5227,13 @@
         <v>3</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F169" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5265,13 +5247,13 @@
         <v>3</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F170" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5285,10 +5267,10 @@
         <v>3</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F171" s="1" t="s">
         <v>5</v>
@@ -5305,10 +5287,10 @@
         <v>3</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="F172" s="1" t="s">
         <v>5</v>
@@ -5325,10 +5307,10 @@
         <v>3</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="F173" s="1" t="s">
         <v>5</v>
@@ -5345,73 +5327,73 @@
         <v>3</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="F174" s="1" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C175" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>374</v>
+        <v>392</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="F175" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B176" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D176" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>374</v>
-      </c>
       <c r="E176" s="1" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
       <c r="F176" s="1" t="s">
-        <v>393</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F177" s="1" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5425,13 +5407,13 @@
         <v>3</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F178" s="1" t="s">
-        <v>5</v>
+        <v>389</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5445,13 +5427,13 @@
         <v>3</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F179" s="1" t="s">
-        <v>203</v>
+        <v>389</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5465,53 +5447,53 @@
         <v>3</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F180" s="1" t="s">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="C181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="E181" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F181" s="1" t="s">
-        <v>393</v>
+        <v>18</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C182" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5525,13 +5507,13 @@
         <v>3</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>203</v>
+        <v>18</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5545,50 +5527,50 @@
         <v>3</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F184" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D185" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="B185" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>407</v>
-      </c>
       <c r="E185" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C186" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F186" s="1" t="s">
         <v>5</v>
@@ -5605,10 +5587,10 @@
         <v>3</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F187" s="1" t="s">
         <v>5</v>
@@ -5625,10 +5607,10 @@
         <v>3</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F188" s="1" t="s">
         <v>5</v>
@@ -5636,19 +5618,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D189" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B189" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>416</v>
-      </c>
       <c r="E189" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F189" s="1" t="s">
         <v>5</v>
@@ -5656,22 +5638,22 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C190" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="F190" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,10 +5667,10 @@
         <v>3</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F191" s="1" t="s">
         <v>5</v>
@@ -5705,13 +5687,13 @@
         <v>3</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F192" s="1" t="s">
-        <v>203</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,10 +5707,10 @@
         <v>3</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F193" s="1" t="s">
         <v>5</v>
@@ -5736,19 +5718,19 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D194" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B194" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>425</v>
-      </c>
       <c r="E194" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F194" s="1" t="s">
         <v>5</v>
@@ -5756,39 +5738,39 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C195" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F195" s="1" t="s">
-        <v>5</v>
+        <v>437</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C196" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F196" s="1" t="s">
         <v>5</v>
@@ -5796,22 +5778,22 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C197" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F197" s="1" t="s">
-        <v>441</v>
+        <v>5</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,30 +5807,30 @@
         <v>3</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F198" s="1" t="s">
-        <v>441</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D199" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B199" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>436</v>
-      </c>
       <c r="E199" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F199" s="1" t="s">
         <v>5</v>
@@ -5856,19 +5838,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C200" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F200" s="1" t="s">
         <v>5</v>
@@ -5876,19 +5858,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F201" s="1" t="s">
         <v>5</v>
@@ -5905,10 +5887,10 @@
         <v>3</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F202" s="1" t="s">
         <v>5</v>
@@ -5925,10 +5907,10 @@
         <v>3</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F203" s="1" t="s">
         <v>5</v>
@@ -5945,10 +5927,10 @@
         <v>3</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F204" s="1" t="s">
         <v>5</v>
@@ -5956,19 +5938,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D205" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B205" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>450</v>
-      </c>
       <c r="E205" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F205" s="1" t="s">
         <v>5</v>
@@ -5976,19 +5958,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C206" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F206" s="1" t="s">
         <v>5</v>
@@ -5996,19 +5978,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C207" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F207" s="1" t="s">
         <v>5</v>
@@ -6025,10 +6007,10 @@
         <v>3</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E208" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F208" s="1" t="s">
         <v>5</v>
@@ -6045,10 +6027,10 @@
         <v>3</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F209" s="1" t="s">
         <v>5</v>
@@ -6065,10 +6047,10 @@
         <v>3</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E210" s="1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="F210" s="1" t="s">
         <v>5</v>
@@ -6076,19 +6058,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D211" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B211" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>463</v>
-      </c>
       <c r="E211" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F211" s="1" t="s">
         <v>5</v>
@@ -6096,19 +6078,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C212" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E212" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F212" s="1" t="s">
         <v>5</v>
@@ -6116,19 +6098,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C213" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E213" s="1" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F213" s="1" t="s">
         <v>5</v>
@@ -6145,10 +6127,10 @@
         <v>3</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E214" s="1" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F214" s="1" t="s">
         <v>5</v>
@@ -6165,72 +6147,12 @@
         <v>3</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="E215" s="1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F215" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F218" s="1" t="s">
         <v>5</v>
       </c>
     </row>
